--- a/Javascript_Udemy.xlsx
+++ b/Javascript_Udemy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0947CA5-531F-48E9-9E86-107FDA12923E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB68A96-5397-4C8C-8FAC-7E048FEB1905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E40AECD-0449-4D33-A622-10335F62A840}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E40AECD-0449-4D33-A622-10335F62A840}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Javascript</t>
   </si>
@@ -102,13 +102,16 @@
   </si>
   <si>
     <t>ôn tập</t>
+  </si>
+  <si>
+    <t>Chapter 16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +151,16 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +183,11 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -269,17 +285,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -313,11 +327,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="60% - Accent4" xfId="3" builtinId="44"/>
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -630,873 +651,925 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A48BF00-D472-4041-B886-83848F3796F8}">
-  <dimension ref="A6:O35"/>
+  <dimension ref="A6:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="8.7109375" style="8" customWidth="1"/>
-    <col min="7" max="8" width="11.7109375" style="8" customWidth="1"/>
-    <col min="9" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="15" width="12.7109375" customWidth="1"/>
+    <col min="1" max="6" width="8.6640625" style="7" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" style="7" customWidth="1"/>
+    <col min="9" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="15" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="P7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>8</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>1</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>1</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <v>1</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="2">
         <v>1</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="P8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>2</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>2</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>9</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>2</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>2</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <v>2</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <v>2</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="2">
         <v>2</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="P9" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>3</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>3</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>3</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>10</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>3</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>3</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>3</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <v>3</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="2">
         <v>3</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="P10" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>4</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>4</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>4</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>4</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>4</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>11</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>4</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>4</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>4</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>4</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="2">
         <v>4</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="P11" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>5</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>5</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>5</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>5</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>5</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <v>12</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>5</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>5</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="2">
         <v>5</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="2">
         <v>5</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <v>5</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="P12" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>6</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>6</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>6</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>6</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>13</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>6</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>6</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="2">
         <v>6</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>6</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="2">
         <v>6</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="P13" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>7</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>7</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>7</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>7</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <v>14</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>7</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>7</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="2">
         <v>7</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="2">
         <v>7</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="5">
         <v>7</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
+      <c r="P14" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>8</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <v>15</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="2">
         <v>8</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="P15" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
         <v>9</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>9</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>9</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>9</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>9</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <v>16</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>9</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>9</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <v>9</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <v>9</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="2">
         <v>9</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="P16" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
         <v>10</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>10</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>10</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>10</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>10</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>10</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>10</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="2">
         <v>10</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <v>10</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="2">
         <v>10</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
+      <c r="P17" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
         <v>11</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>11</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>11</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>11</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="11">
         <v>18</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>11</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>11</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <v>11</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="2">
         <v>11</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="2">
         <v>11</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
+      <c r="P18" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
         <v>12</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>12</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>12</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>12</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="11">
         <v>19</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>12</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>12</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="2">
         <v>12</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="2">
         <v>12</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="2">
         <v>12</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
+      <c r="P19" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
         <v>13</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>13</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>13</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>13</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="11">
         <v>20</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>13</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>13</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="3">
         <v>13</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="2">
         <v>13</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="2">
         <v>13</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
+      <c r="P20" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
         <v>14</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>14</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>14</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>14</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="11">
         <v>21</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>14</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>14</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <v>14</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="2">
         <v>14</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="2">
         <v>14</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
+      <c r="P21" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
         <v>15</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>15</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>15</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>22</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>15</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="2">
         <v>15</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="2">
         <v>15</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
+      <c r="P22" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
         <v>16</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>16</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>16</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>23</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>16</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="2">
         <v>16</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="2">
         <v>16</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
+      <c r="P23" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
         <v>17</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>17</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>17</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>24</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>17</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="2">
         <v>17</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
         <v>18</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>18</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <v>18</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <v>25</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="3">
+      <c r="J25" s="7"/>
+      <c r="K25" s="2">
         <v>18</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="2">
         <v>18</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
         <v>19</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>19</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>19</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <v>19</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="2">
         <v>19</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
         <v>20</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>20</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <v>20</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="2">
         <v>20</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
         <v>21</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <v>21</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="2">
         <v>21</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
         <v>22</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <v>22</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="2">
         <v>22</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
         <v>23</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <v>23</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="M30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
         <v>24</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="2">
         <v>24</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="M31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
         <v>25</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="2">
         <v>25</v>
       </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="3" t="s">
+      <c r="M32" s="7"/>
+      <c r="N32" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K33" s="3">
+    <row r="33" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K33" s="2">
         <v>26</v>
       </c>
-      <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K34" s="3">
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K34" s="2">
         <v>27</v>
       </c>
-      <c r="M34" s="8"/>
-    </row>
-    <row r="35" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K35" s="3">
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K35" s="2">
         <v>28</v>
       </c>
-      <c r="M35" s="8"/>
+      <c r="M35" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="A6:P6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
